--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>INT</t>
   </si>
@@ -44,12 +44,6 @@
     <t>加特林脉冲激光器</t>
   </si>
   <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>激光炮塔</t>
-  </si>
-  <si>
     <t>加特林无焦点微波激射器</t>
   </si>
   <si>
@@ -79,13 +73,61 @@
   </si>
   <si>
     <t>y坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_id1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_damage1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术伤害1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point.[rate]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point.{spell}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,28 +564,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="10.06640625" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="6.06640625" customWidth="1"/>
     <col min="5" max="5" width="17.265625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.265625" customWidth="1"/>
-    <col min="9" max="9" width="11.53125"/>
-    <col min="10" max="10" width="9.73046875" customWidth="1"/>
-    <col min="11" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.73046875" customWidth="1"/>
+    <col min="11" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +598,20 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -565,94 +619,198 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>10000001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000002</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1001</v>
+      </c>
+      <c r="H6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000003</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1002</v>
+      </c>
+      <c r="H7">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10000002</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000004</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1003</v>
+      </c>
+      <c r="H8">
+        <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10000003</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000005</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10000004</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000005</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1004</v>
+      </c>
+      <c r="H9">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>INT</t>
   </si>
@@ -80,54 +80,86 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rate1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>利率1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>法术伤害1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{spell:spell_item}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{spell:key}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_id#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_damage#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_comment#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[rate:rate_item]#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>利率2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>spell_id1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_damage1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术ID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术伤害1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>point.[rate]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>point.{spell}</t>
+    <t>comment#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[rate:rate_item]#2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,28 +596,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" customWidth="1"/>
-    <col min="4" max="4" width="6.06640625" customWidth="1"/>
-    <col min="5" max="5" width="17.265625" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="17.46484375" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.73046875" customWidth="1"/>
-    <col min="11" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +643,17 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -625,19 +667,28 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -651,39 +702,57 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10000001</v>
       </c>
@@ -703,13 +772,22 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1000</v>
       </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10000002</v>
       </c>
@@ -729,13 +807,22 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1001</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1001</v>
       </c>
+      <c r="K6">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10000003</v>
       </c>
@@ -755,13 +842,22 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1002</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1002</v>
       </c>
+      <c r="K7">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10000004</v>
       </c>
@@ -781,13 +877,22 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1003</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>1003</v>
       </c>
+      <c r="K8">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10000005</v>
       </c>
@@ -807,9 +912,18 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>1004</v>
       </c>
-      <c r="H9">
+      <c r="J9">
+        <v>1004</v>
+      </c>
+      <c r="K9">
         <v>1004</v>
       </c>
     </row>

--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>INT</t>
   </si>
@@ -92,74 +92,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{spell:spell_item}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{spell:key}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>法术ID1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法术备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_id#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_damage#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_comment#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate#2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[rate:rate_item]#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>利率2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>comment#2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[rate:rate_item]#2</t>
+    <t>[rate]#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[rate]#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{spell}#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术备注1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,29 +584,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="1024" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" customWidth="1"/>
+    <col min="4" max="6" width="15.9296875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" customWidth="1"/>
+    <col min="9" max="9" width="19.1328125" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" customWidth="1"/>
+    <col min="13" max="13" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -667,28 +656,28 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -705,25 +694,25 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -731,28 +720,28 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000001</v>
       </c>
@@ -787,7 +776,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000002</v>
       </c>
@@ -822,7 +811,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000003</v>
       </c>
@@ -857,7 +846,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000004</v>
       </c>
@@ -892,7 +881,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000005</v>
       </c>

--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -12,7 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="装备" sheetId="1" r:id="rId1"/>
+    <sheet name="村" sheetId="1" r:id="rId1"/>
+    <sheet name="小城" sheetId="2" r:id="rId2"/>
+    <sheet name="大城" sheetId="3" r:id="rId3"/>
+    <sheet name="门派" sheetId="4" r:id="rId4"/>
+    <sheet name="副本" sheetId="5" r:id="rId5"/>
+    <sheet name="团队副本" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
   <si>
     <t>INT</t>
   </si>
@@ -38,109 +43,71 @@
     <t>name</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>加特林脉冲激光器</t>
-  </si>
-  <si>
-    <t>加特林无焦点微波激射器</t>
-  </si>
-  <si>
-    <t>加特林增强激光器</t>
-  </si>
-  <si>
-    <t>加特林阳粒子炮</t>
-  </si>
-  <si>
-    <t>加特林调制型阳粒子炮</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>X坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术伤害1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术ID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[rate]#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[rate]#2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{spell}#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术备注1</t>
+    <t>Y坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[npc]#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云隐村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[npc]#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云隐村市场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场物品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,6 +135,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,10 +171,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -596,18 +573,17 @@
     <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
-    <col min="4" max="6" width="15.9296875" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" customWidth="1"/>
-    <col min="9" max="9" width="19.1328125" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.3984375" customWidth="1"/>
-    <col min="12" max="12" width="20.19921875" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.9296875" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" customWidth="1"/>
+    <col min="6" max="7" width="15.9296875" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="1024" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,34 +591,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -650,275 +614,555 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>71000001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10000001</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1000</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="K5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10000002</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1001</v>
-      </c>
-      <c r="J6">
-        <v>1001</v>
-      </c>
-      <c r="K6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10000003</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1002</v>
-      </c>
-      <c r="J7">
-        <v>1002</v>
-      </c>
-      <c r="K7">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000004</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1003</v>
-      </c>
-      <c r="J8">
-        <v>1003</v>
-      </c>
-      <c r="K8">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10000005</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1004</v>
-      </c>
-      <c r="J9">
-        <v>1004</v>
-      </c>
-      <c r="K9">
-        <v>1004</v>
-      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0741584B-A7E4-482C-8C09-10F3D391D93D}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B52885-6641-46AA-ADC1-A27164F390F4}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B407EB-B2A7-44EE-B7B5-E01BA7AC616D}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2785933A-94FD-4C85-ADA8-DC03FFA2117F}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE3711-A627-432F-99DC-0BAA79B4FADC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="村" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="副本" sheetId="5" r:id="rId5"/>
     <sheet name="团队副本" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="25">
   <si>
     <t>INT</t>
   </si>
@@ -108,6 +108,22 @@
   </si>
   <si>
     <t>命名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不入品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -575,15 +591,15 @@
     <col min="3" max="3" width="15.46484375" customWidth="1"/>
     <col min="4" max="4" width="15.9296875" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" customWidth="1"/>
-    <col min="6" max="7" width="15.9296875" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.9296875" customWidth="1"/>
     <col min="9" max="9" width="18.3984375" customWidth="1"/>
     <col min="10" max="10" width="20.19921875" customWidth="1"/>
     <col min="11" max="11" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="1024" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,13 +616,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -623,13 +642,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -646,21 +668,24 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>71000001</v>
       </c>
@@ -676,23 +701,26 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
@@ -704,15 +732,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0741584B-A7E4-482C-8C09-10F3D391D93D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,13 +757,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -752,13 +783,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -775,17 +809,20 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -797,15 +834,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B52885-6641-46AA-ADC1-A27164F390F4}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,13 +859,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -845,13 +885,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -868,17 +911,20 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -890,15 +936,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B407EB-B2A7-44EE-B7B5-E01BA7AC616D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,13 +961,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -938,13 +987,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -961,17 +1013,20 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -983,15 +1038,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2785933A-94FD-4C85-ADA8-DC03FFA2117F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,13 +1063,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1031,13 +1089,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1054,17 +1115,20 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1076,15 +1140,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE3711-A627-432F-99DC-0BAA79B4FADC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,13 +1165,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1124,13 +1191,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1147,17 +1217,20 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/bin/xlsx/位置表.xlsx
+++ b/bin/xlsx/位置表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="村" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="副本" sheetId="5" r:id="rId5"/>
     <sheet name="团队副本" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="32">
   <si>
     <t>INT</t>
   </si>
@@ -125,6 +125,34 @@
   <si>
     <t>不入品</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云隐山脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云隐山脉关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,10 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:H4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -593,13 +622,13 @@
     <col min="5" max="5" width="20.59765625" customWidth="1"/>
     <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.9296875" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.19921875" customWidth="1"/>
     <col min="11" max="11" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="1024" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +653,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -650,8 +682,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -676,8 +711,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -685,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>71000001</v>
       </c>
@@ -710,17 +748,20 @@
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
@@ -732,15 +773,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0741584B-A7E4-482C-8C09-10F3D391D93D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +810,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -791,8 +839,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -817,8 +868,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -834,15 +888,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B52885-6641-46AA-ADC1-A27164F390F4}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,8 +925,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -893,8 +954,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -919,8 +983,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -936,15 +1003,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B407EB-B2A7-44EE-B7B5-E01BA7AC616D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,8 +1040,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -995,8 +1069,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1021,8 +1098,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -1038,15 +1118,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2785933A-94FD-4C85-ADA8-DC03FFA2117F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1156,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1097,8 +1185,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1123,13 +1214,45 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>74000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1140,15 +1263,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE3711-A627-432F-99DC-0BAA79B4FADC}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +1300,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1199,8 +1329,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1225,8 +1358,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>11</v>
       </c>
